--- a/decArgo_doc/float_user_manuals/APEX_floats/Argos/ApexTimings.xlsx
+++ b/decArgo_doc/float_user_manuals/APEX_floats/Argos/ApexTimings.xlsx
@@ -17,54 +17,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Auteur</author>
-  </authors>
-  <commentList>
-    <comment ref="D15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>En attente CS pour identification de paramètres</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">En attente CS (valiadtion attribution des paramètres + check valeurs décodées)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="115">
   <si>
@@ -417,7 +369,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,21 +391,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,12 +438,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,9 +613,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -699,6 +629,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1005,7 +938,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1424,21 +1357,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.77734375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="40" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.88671875" style="17" bestFit="1" customWidth="1"/>
@@ -1448,7 +1381,7 @@
     <col min="10" max="10" width="8.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5546875" style="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="52.21875" style="43" customWidth="1"/>
+    <col min="13" max="13" width="52.21875" style="42" customWidth="1"/>
     <col min="14" max="16384" width="11.5546875" style="17"/>
   </cols>
   <sheetData>
@@ -1489,7 +1422,7 @@
       <c r="L1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="41" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1983,7 +1916,7 @@
       <c r="C14" s="30">
         <v>4</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="43" t="s">
         <v>111</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -2022,7 +1955,7 @@
       <c r="C15" s="32">
         <v>4</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="44" t="s">
         <v>112</v>
       </c>
       <c r="E15" s="21" t="s">
@@ -2061,7 +1994,7 @@
       <c r="C16" s="32">
         <v>2</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="44" t="s">
         <v>113</v>
       </c>
       <c r="E16" s="21" t="s">
@@ -2091,7 +2024,7 @@
       <c r="M16" s="22"/>
     </row>
     <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="39">
+      <c r="A17" s="38">
         <v>1016</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -2136,6 +2069,5 @@
     <oddHeader>&amp;C&amp;F</oddHeader>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>